--- a/Структура данных.xlsx
+++ b/Структура данных.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Автомобили</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>Автомобиль</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Двигатель (базовый)</t>
+  </si>
+  <si>
+    <t>Двигатель внутреннего сгорания</t>
+  </si>
+  <si>
+    <t>Бензиновый двигатель</t>
+  </si>
+  <si>
+    <t>Дизельный двигатель</t>
   </si>
 </sst>
 </file>
@@ -203,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -212,6 +227,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -233,13 +254,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
@@ -282,13 +303,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -329,13 +350,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -347,8 +368,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="1924050"/>
-          <a:ext cx="2352675" cy="752475"/>
+          <a:off x="3343275" y="1914525"/>
+          <a:ext cx="2333625" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -376,13 +397,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -423,13 +444,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -470,13 +491,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -490,6 +511,194 @@
         <a:xfrm>
           <a:off x="4638675" y="876300"/>
           <a:ext cx="857250" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609759</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Прямая со стрелкой 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2581275" y="2181225"/>
+          <a:ext cx="9684" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Прямая со стрелкой 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2600325" y="3371850"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Прямая со стрелкой 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2781300" y="4714875"/>
+          <a:ext cx="0" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Соединительная линия уступом 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1362075" y="4638675"/>
+          <a:ext cx="619125" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -781,118 +990,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H14"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="2" t="s">
+    <row r="8" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="4" t="s">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="3" t="s">
+    <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
